--- a/TAP_POM_Framework/data/TC0045.xlsx
+++ b/TAP_POM_Framework/data/TC0045.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>uname</t>
   </si>
@@ -27,10 +27,34 @@
     <t>pwd</t>
   </si>
   <si>
-    <t>app_admin@ltts.com</t>
+    <t>row</t>
+  </si>
+  <si>
+    <t>tail</t>
+  </si>
+  <si>
+    <t>aircraft</t>
+  </si>
+  <si>
+    <t>active</t>
+  </si>
+  <si>
+    <t>airline</t>
+  </si>
+  <si>
+    <t>sys_admin@ltts.com</t>
   </si>
   <si>
     <t>Rajravi@1</t>
+  </si>
+  <si>
+    <t>thales12</t>
+  </si>
+  <si>
+    <t>moto12 (0)</t>
+  </si>
+  <si>
+    <t>Inactive</t>
   </si>
 </sst>
 </file>
@@ -359,31 +383,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>145</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
